--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9660"/>
+    <workbookView windowWidth="29655" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>icon</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -87,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,9 +107,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,70 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,28 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -229,14 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,6 +253,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,25 +301,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,145 +379,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +458,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,26 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -538,6 +509,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1091,13 +1091,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29655" windowHeight="17070"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,19 +129,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -136,6 +181,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -144,8 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +206,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,75 +249,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,73 +259,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,37 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,55 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +450,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,6 +498,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,6 +523,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,69 +550,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,139 +568,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,116 +1059,118 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="31.625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
     </row>

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>param1</t>
   </si>
   <si>
+    <t>param2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>TVector2</t>
   </si>
   <si>
     <t>ID</t>
@@ -82,6 +88,9 @@
     <t>参数1</t>
   </si>
   <si>
+    <t>参数2说明</t>
+  </si>
+  <si>
     <t>协同作战</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
   </si>
   <si>
     <t>协同飞机跟随速度</t>
+  </si>
+  <si>
+    <t>协同飞机位置</t>
+  </si>
+  <si>
+    <t>(-200,-50)</t>
   </si>
   <si>
     <t>火力强化</t>
@@ -242,9 +257,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,19 +279,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,67 +350,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,181 +401,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -656,160 +686,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1191,10 +1206,12 @@
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="20.6730769230769" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.69230769230769" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="25.7980769230769" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.0769230769231" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,95 +1236,110 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3">
         <v>750</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1315,28 +1347,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -1347,31 +1379,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1379,28 +1411,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -1411,28 +1443,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3">
         <v>0.5</v>
@@ -1443,28 +1475,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3">
         <v>0.1</v>
@@ -1475,28 +1507,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -1507,28 +1539,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -1539,28 +1571,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3">
         <v>0.5</v>
@@ -1571,28 +1603,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>协同飞机位置</t>
   </si>
   <si>
-    <t>(-200,-50)</t>
+    <t>(-150,-100)</t>
   </si>
   <si>
     <t>火力强化</t>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -256,8 +256,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +332,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -279,16 +362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,91 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,13 +401,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,31 +515,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,31 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,91 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +602,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,7 +626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +641,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -661,6 +661,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -671,160 +686,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:L$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1499,7 +1499,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:10">

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>param2</t>
   </si>
   <si>
+    <t>param3</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>TVector2</t>
   </si>
   <si>
     <t>ID</t>
@@ -103,10 +103,10 @@
     <t>协同飞机跟随速度</t>
   </si>
   <si>
-    <t>协同飞机位置</t>
-  </si>
-  <si>
-    <t>(-150,-100)</t>
+    <t>协同飞机位置X</t>
+  </si>
+  <si>
+    <t>协同飞机位置Y</t>
   </si>
   <si>
     <t>火力强化</t>
@@ -142,7 +142,10 @@
     <t>coin</t>
   </si>
   <si>
-    <t>金币增益比例</t>
+    <t>命中获得金币比例</t>
+  </si>
+  <si>
+    <t>命中触发金币获得概率</t>
   </si>
   <si>
     <t>弱化病毒</t>
@@ -222,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -249,6 +252,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -256,33 +283,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,15 +368,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,75 +384,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,25 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,157 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +610,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -622,15 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,6 +644,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -661,21 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -689,145 +692,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1189,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1208,10 +1211,12 @@
     <col min="10" max="10" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.7980769230769" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.0769230769231" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="25.7980769230769" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.0769230769231" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1239,37 +1244,45 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,8 +1316,11 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1338,8 +1354,14 @@
       <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1406,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1435,7 +1457,13 @@
         <v>41</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1443,28 +1471,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3">
         <v>0.5</v>
@@ -1475,28 +1503,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
         <v>0.02</v>
@@ -1507,28 +1535,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -1539,28 +1567,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -1571,28 +1599,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3">
         <v>0.5</v>
@@ -1603,28 +1631,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -226,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -246,17 +246,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,120 +360,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,8 +595,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,15 +656,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,21 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,177 +689,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,54 +847,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1190,29 +1190,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.30769230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.30833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.6153846153846" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.8461538461538" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.6166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.85" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="18.7692307692308" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.69230769230769" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.7980769230769" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.0769230769231" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.7980769230769" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.0769230769231" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.675" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.69166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.8" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.075" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.075" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1244,7 +1244,6 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1276,6 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
@@ -1495,7 +1493,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1527,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1655,7 +1653,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1674,7 +1672,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1682,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1690,7 +1688,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -245,6 +245,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -253,7 +268,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,76 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,32 +351,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,25 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,157 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,24 +589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,6 +603,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +672,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -650,55 +689,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1385,7 +1385,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>33</v>
@@ -1411,19 +1411,19 @@
         <v>35</v>
       </c>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12">

--- a/DestroyViruses/Assets/Tables/TableBuff.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="28720" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>id</t>
   </si>
@@ -94,6 +94,9 @@
     <t>协同作战</t>
   </si>
   <si>
+    <t>buff_support</t>
+  </si>
+  <si>
     <t>icon_buff_support</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>火力强化</t>
   </si>
   <si>
+    <t>buff_fire_power</t>
+  </si>
+  <si>
     <t>icon_buff_fire_power</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>射速强化</t>
   </si>
   <si>
+    <t>buff_fire_speed</t>
+  </si>
+  <si>
     <t>icon_buff_fire_speed</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
     <t>点石成金</t>
   </si>
   <si>
+    <t>buff_coin</t>
+  </si>
+  <si>
     <t>icon_buff_coin</t>
   </si>
   <si>
@@ -151,6 +163,9 @@
     <t>弱化病毒</t>
   </si>
   <si>
+    <t>buff_slowdown</t>
+  </si>
+  <si>
     <t>icon_buff_slowdown</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>击退效果</t>
   </si>
   <si>
+    <t>buff_knockback</t>
+  </si>
+  <si>
     <t>icon_buff_knockback</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>副武器强化</t>
   </si>
   <si>
+    <t>buff_weapon_up</t>
+  </si>
+  <si>
     <t>icon_buff_weapon_up</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t>巨化病毒</t>
   </si>
   <si>
+    <t>buff_boost_virus</t>
+  </si>
+  <si>
     <t>icon_buff_boost_virus</t>
   </si>
   <si>
@@ -199,6 +223,9 @@
     <t>限制移动</t>
   </si>
   <si>
+    <t>buff_move_limitation</t>
+  </si>
+  <si>
     <t>icon_buff_move_limitation</t>
   </si>
   <si>
@@ -209,6 +236,9 @@
   </si>
   <si>
     <t>活化病毒</t>
+  </si>
+  <si>
+    <t>buff_live_up_virus</t>
   </si>
   <si>
     <t>icon_buff_live_up_virus</t>
@@ -225,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -245,6 +275,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -254,43 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +375,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,48 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,32 +622,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +645,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,148 +722,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,54 +877,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1190,29 +1220,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.30833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.30769230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.6166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.85" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.8461538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6153846153846" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.8461538461538" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="18.7666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7692307692308" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="20.675" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.69166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.075" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.075" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6730769230769" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.69230769230769" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.7980769230769" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.0769230769231" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.7980769230769" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.0769230769231" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1325,38 +1356,38 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3">
         <v>750</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>-150</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>-100</v>
@@ -1367,28 +1398,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -1399,28 +1430,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
@@ -1431,34 +1462,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3">
         <v>0.2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2">
         <v>0.5</v>
@@ -1469,28 +1500,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3">
         <v>0.3</v>
@@ -1501,28 +1532,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J9" s="3">
         <v>0.1</v>
@@ -1533,28 +1564,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -1565,28 +1596,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -1597,28 +1628,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J12" s="3">
         <v>0.5</v>
@@ -1629,28 +1660,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J13" s="3">
         <v>1.5</v>
@@ -1664,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1672,7 +1703,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1680,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1688,7 +1719,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
